--- a/abc4sfa/4_error_measurements/data/output/simulations/hf/sigmas_metrics_hf_2025-04-23.xlsx
+++ b/abc4sfa/4_error_measurements/data/output/simulations/hf/sigmas_metrics_hf_2025-04-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanrengifo101/Documents/_OneDrive/_Publicaciones/_apolo/auto_apolo/abc4sfa/4_error_measurements/data/output/simulations/hf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524646DC-DC5C-7F4D-A0EA-B4DE76653452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8186349-537E-1F45-A411-C2792920D207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
-  <si>
-    <t>ID_inverted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>scenario</t>
   </si>
@@ -59,18 +56,12 @@
   </si>
   <si>
     <t>s12</t>
-  </si>
-  <si>
-    <t>s14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,12 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -428,24 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,192 +445,165 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>9.3457661505904926E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.2642914884971368E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.2054736793695135</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.5129328373320864E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
-        <v>9.3457661505904926E-2</v>
-      </c>
-      <c r="E2">
-        <v>3.9241347852857669E-5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.2054736793695135</v>
-      </c>
-      <c r="G2">
-        <v>7.2470025492926931E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="2">
+        <v>0.1185539479250379</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.271444321635726E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.7970291061704664</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.39231371632050999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.6265922674245613E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.223126361156019E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.1947503652199947</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.28893999578442298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.12497481607765649</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.7481014503193862E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13.02748229812272</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.52273196147510326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C6" s="2">
+        <v>-0.3413915901708196</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.0982090746749035E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.58593218367302458</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.1180389037295223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.78548252711380706</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.15978078642980681</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.142062111936901</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.22897120986230171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.1185539479250379</v>
-      </c>
-      <c r="E3">
-        <v>5.2873902522648447E-5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.7970291061704664</v>
-      </c>
-      <c r="G3">
-        <v>0.15391005201320959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C8" s="2">
+        <v>-0.40291664180319292</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.2809704894861391E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.73797067862439247</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.15020309558399281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>8.6265922674245613E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.8727301706914962E-5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.1947503652199947</v>
-      </c>
-      <c r="G4">
-        <v>8.3486321163902408E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.12497481607765649</v>
-      </c>
-      <c r="E5">
-        <v>6.0033076084441379E-5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>13.02748229812272</v>
-      </c>
-      <c r="G5">
-        <v>0.27324870354760877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.3413915901708196</v>
-      </c>
-      <c r="E6">
-        <v>5.0384572067797154E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.58593218367302458</v>
-      </c>
-      <c r="G6">
-        <v>1.3933182793667429E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.78548252711380706</v>
-      </c>
-      <c r="E7">
-        <v>2.5529899712127529E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.142062111936901</v>
-      </c>
-      <c r="G7">
-        <v>5.2427814945806221E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-0.40291664180319292</v>
-      </c>
-      <c r="E8">
-        <v>6.857447224774031E-3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.73797067862439247</v>
-      </c>
-      <c r="G8">
-        <v>2.2560969923014072E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
         <v>1.7209107371935271</v>
       </c>
-      <c r="E9">
-        <v>5.1819464348305654E-3</v>
+      <c r="D9" s="2">
+        <v>7.1985737718179746E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15.540933618319031</v>
       </c>
       <c r="F9" s="2">
-        <v>15.540933618319031</v>
-      </c>
-      <c r="G9">
-        <v>0.3882226792262603</v>
+        <v>0.6230751794336381</v>
       </c>
     </row>
   </sheetData>
